--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ODOO\8 Develoop\odoo-develoop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E85CF-E05F-4FF0-9845-A9C83AEE1E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A1EF6C-BD13-4C84-8A44-96FE710AF024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>ODOO DEVELOOP:</t>
-  </si>
-  <si>
-    <t>- Proyecto-&gt;Tarea-&gt;Poner en rojo la fecha vencimiento de tarea cuando se vence</t>
-  </si>
-  <si>
-    <t>- Proyecto-&gt;Tarea-&gt; Poner en rojo o alerta cuando las horas imputadas es mayor a horas estimadas.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -60,9 +51,6 @@
     <t>Tareas</t>
   </si>
   <si>
-    <t>Planificacion</t>
-  </si>
-  <si>
     <t>Parte de horas</t>
   </si>
   <si>
@@ -72,12 +60,6 @@
     <t>hr_timesheet_custom</t>
   </si>
   <si>
-    <t>instalar</t>
-  </si>
-  <si>
-    <t>PLANIFICACION &gt; si la tarea se encuentra en validacion o superior no pintar en rojo</t>
-  </si>
-  <si>
     <t>Nuevo tab con informacion de planificaciones</t>
   </si>
   <si>
@@ -88,6 +70,24 @@
   </si>
   <si>
     <t>Vista de tareas listar en cada tarea todas las planificaciones "Fecha Ini - Persona (Tiempo) - Fecha Fin"</t>
+  </si>
+  <si>
+    <t>Tareas (Form)</t>
+  </si>
+  <si>
+    <t>Poner en rojo la fecha vencimiento de tarea cuando se vence</t>
+  </si>
+  <si>
+    <t>Planificacion (gant)</t>
+  </si>
+  <si>
+    <t>si la etapa de la tarea se encuentra en "validacion" o superior no pintar en rojo</t>
+  </si>
+  <si>
+    <t>Tareas (From)</t>
+  </si>
+  <si>
+    <t>Poner en rojo o alerta cuando las horas imputadas es mayor a horas estimadas en progressbar</t>
   </si>
 </sst>
 </file>
@@ -123,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -408,110 +411,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="92.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
